--- a/data/Config.xlsx
+++ b/data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\__bite_dev\PROJGosZakupAutomation\GosZakupAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E238706B-6F57-4A06-806F-EE1E37562BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F3D497-01A2-4BA1-8143-3DC1D1424B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CF29381C-BBBC-4892-948C-B1A8516F6FD0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>windows_credential</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Aa1234</t>
+  </si>
+  <si>
+    <t>cert_path</t>
+  </si>
+  <si>
+    <t>C:\Users\artemiy.ogloblin\Downloads\GOST512_b32b00ee0727c13e6a843c4dec9d653d4a9adf9c (1).p12</t>
   </si>
 </sst>
 </file>
@@ -86,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,17 +115,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -128,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7085C12-3BEE-4D61-826D-6B96E48CD906}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,9 +469,10 @@
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="91.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -486,11 +482,14 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -499,6 +498,10 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/Config.xlsx
+++ b/data/Config.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\__bite_dev\PROJGosZakupAutomation\GosZakupAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F3D497-01A2-4BA1-8143-3DC1D1424B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278B5162-CD3A-4483-B340-BC6AFA3FB2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CF29381C-BBBC-4892-948C-B1A8516F6FD0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Настройка аккаунта" sheetId="1" r:id="rId1"/>
+    <sheet name="Режим отладки" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,37 +37,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>windows_credential</t>
-  </si>
-  <si>
-    <t>cert_password</t>
-  </si>
-  <si>
-    <t>signature_name</t>
-  </si>
-  <si>
-    <t>GosZakupAutomation</t>
-  </si>
-  <si>
-    <t>base_url</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Aa1234</t>
   </si>
   <si>
-    <t>cert_path</t>
+    <t>Тип организации</t>
+  </si>
+  <si>
+    <t>Имя УЗ</t>
+  </si>
+  <si>
+    <t>Пароль УЗ</t>
+  </si>
+  <si>
+    <t>Путь до сертификата</t>
+  </si>
+  <si>
+    <t>Пароль от сертификата</t>
+  </si>
+  <si>
+    <t>Номер заявки для копирования данных</t>
+  </si>
+  <si>
+    <t>ТОО</t>
+  </si>
+  <si>
+    <t>Ernarstroy2013</t>
+  </si>
+  <si>
+    <t>C:\dev\__bite_dev\PROJGosZakupAutomation\cert\GOST512_02213f9c53acb47ee1fc17fa8592e2bd0b98df29.p12</t>
+  </si>
+  <si>
+    <t>13526367-1</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Настроить номер</t>
+  </si>
+  <si>
+    <t>Режим отладки</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Документ для подписи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Заявка на участие в конкурсе для физических лиц (Приложение 5)</t>
+  </si>
+  <si>
+    <t>Включать?</t>
+  </si>
+  <si>
+    <t>Да/Нет</t>
+  </si>
+  <si>
+    <t>Перечень приобретаемых товаров(Приложение 2)</t>
+  </si>
+  <si>
+    <t>Техническое задание(Приложение 3)</t>
+  </si>
+  <si>
+    <t>Сведения о квалификации работников потенциального поставщика (Приложение 6)</t>
+  </si>
+  <si>
+    <t>Обеспечение заявки, либогарантийный денежный взнос</t>
+  </si>
+  <si>
+    <t>последние действие</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Aa123456</t>
+  </si>
+  <si>
+    <t>Aa1234@_</t>
   </si>
   <si>
     <t>C:\Users\artemiy.ogloblin\Downloads\GOST512_b32b00ee0727c13e6a843c4dec9d653d4a9adf9c (1).p12</t>
+  </si>
+  <si>
+    <t>ИП</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +147,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -115,17 +194,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,50 +551,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7085C12-3BEE-4D61-826D-6B96E48CD906}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="91.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{67E1835C-1634-4287-9B10-A6B45A73A807}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7C5659-2810-411C-A2A6-224E30472B0B}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/Config.xlsx
+++ b/data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\__bite_dev\PROJGosZakupAutomation\GosZakupAutomation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\__bite_dev\PROJGosZakupAutomation\GosZakupAutomation\dist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278B5162-CD3A-4483-B340-BC6AFA3FB2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1FFF05-30C2-4D06-B75C-A7FF15979D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CF29381C-BBBC-4892-948C-B1A8516F6FD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{CF29381C-BBBC-4892-948C-B1A8516F6FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Настройка аккаунта" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7085C12-3BEE-4D61-826D-6B96E48CD906}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7C5659-2810-411C-A2A6-224E30472B0B}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +746,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">

--- a/data/Config.xlsx
+++ b/data/Config.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\__bite_dev\PROJGosZakupAutomation\GosZakupAutomation\dist\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\__bite_dev\PROJGosZakupAutomation\GosZakupAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1FFF05-30C2-4D06-B75C-A7FF15979D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61C672F-AAE7-4688-9612-585318E569CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{CF29381C-BBBC-4892-948C-B1A8516F6FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Настройка аккаунта" sheetId="1" r:id="rId1"/>
-    <sheet name="Режим отладки" sheetId="2" r:id="rId2"/>
+    <sheet name="Настройка лотов" sheetId="3" r:id="rId2"/>
+    <sheet name="Режим отладки" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Aa1234</t>
   </si>
@@ -81,9 +82,6 @@
     <t>Режим отладки</t>
   </si>
   <si>
-    <t>Да</t>
-  </si>
-  <si>
     <t>Документ для подписи</t>
   </si>
   <si>
@@ -93,9 +91,6 @@
     <t>Включать?</t>
   </si>
   <si>
-    <t>Да/Нет</t>
-  </si>
-  <si>
     <t>Перечень приобретаемых товаров(Приложение 2)</t>
   </si>
   <si>
@@ -111,9 +106,6 @@
     <t>последние действие</t>
   </si>
   <si>
-    <t>Нет</t>
-  </si>
-  <si>
     <t>Aa123456</t>
   </si>
   <si>
@@ -124,6 +116,36 @@
   </si>
   <si>
     <t>ИП</t>
+  </si>
+  <si>
+    <t>ИП мукашев</t>
+  </si>
+  <si>
+    <t>Aa1234###</t>
+  </si>
+  <si>
+    <t>C:\Users\artemiy.ogloblin\Downloads\RSA256_9e82238cda0411e143b5aa192446a385f4a4a831 (1).p12</t>
+  </si>
+  <si>
+    <t>13533860-1</t>
+  </si>
+  <si>
+    <t>[Действие] Подача заявки</t>
+  </si>
+  <si>
+    <t>Номер лота</t>
+  </si>
+  <si>
+    <t>Режим выбора</t>
+  </si>
+  <si>
+    <t>Выбрать все лоты</t>
+  </si>
+  <si>
+    <t>Исключить лоты</t>
+  </si>
+  <si>
+    <t>Выбрать перечисленные лоты</t>
   </si>
 </sst>
 </file>
@@ -198,9 +220,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -210,12 +230,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -232,6 +264,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,7 +603,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -626,32 +675,46 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -680,106 +743,770 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7C5659-2810-411C-A2A6-224E30472B0B}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526E5CA6-4BE2-43FF-9BEF-688DAF5A8913}">
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>76714217</v>
+      </c>
+      <c r="D2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>76718439</v>
+      </c>
+      <c r="D3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>76716542</v>
+      </c>
+      <c r="D4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>76712286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7C5659-2810-411C-A2A6-224E30472B0B}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
+      <c r="C8" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Config.xlsx
+++ b/data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\__bite_dev\PROJGosZakupAutomation\GosZakupAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61C672F-AAE7-4688-9612-585318E569CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FCD860-7493-469A-85C6-145977528011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{CF29381C-BBBC-4892-948C-B1A8516F6FD0}"/>
+    <workbookView xWindow="3525" yWindow="1575" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{CF29381C-BBBC-4892-948C-B1A8516F6FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Настройка аккаунта" sheetId="1" r:id="rId1"/>
@@ -747,7 +747,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>76714217</v>
+        <v>75907183</v>
       </c>
       <c r="D2" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>35</v>
@@ -789,10 +789,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>76718439</v>
+        <v>75907186</v>
       </c>
       <c r="D3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>33</v>
@@ -803,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>76716542</v>
+        <v>75927467</v>
       </c>
       <c r="D4" s="4" t="b">
         <v>0</v>
@@ -816,9 +816,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>76712286</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">

--- a/data/Config.xlsx
+++ b/data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\__bite_dev\PROJGosZakupAutomation\GosZakupAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FCD860-7493-469A-85C6-145977528011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D0ED48-3237-4BA5-89FD-D723F4EBA1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="1575" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{CF29381C-BBBC-4892-948C-B1A8516F6FD0}"/>
+    <workbookView xWindow="2955" yWindow="3045" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{CF29381C-BBBC-4892-948C-B1A8516F6FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Настройка аккаунта" sheetId="1" r:id="rId1"/>
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>75907183</v>
+        <v>74376203</v>
       </c>
       <c r="D2" s="4" t="b">
         <v>0</v>
@@ -789,10 +789,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>75907186</v>
+        <v>74428200</v>
       </c>
       <c r="D3" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>33</v>
@@ -803,10 +803,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>75927467</v>
+        <v>74379752</v>
       </c>
       <c r="D4" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>34</v>

--- a/data/Config.xlsx
+++ b/data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\__bite_dev\PROJGosZakupAutomation\GosZakupAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D0ED48-3237-4BA5-89FD-D723F4EBA1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0F8722-DFF7-4C5B-90BE-11D9C4C8523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="3045" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{CF29381C-BBBC-4892-948C-B1A8516F6FD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CF29381C-BBBC-4892-948C-B1A8516F6FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Настройка аккаунта" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Aa1234</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>Выбрать перечисленные лоты</t>
+  </si>
+  <si>
+    <t>Время ожидания кнопки "Доступные действия"</t>
+  </si>
+  <si>
+    <t>минут</t>
   </si>
 </sst>
 </file>
@@ -230,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -248,6 +254,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -602,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7085C12-3BEE-4D61-826D-6B96E48CD906}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -746,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526E5CA6-4BE2-43FF-9BEF-688DAF5A8913}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,11 +784,9 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>74376203</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="D2" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>35</v>
@@ -788,9 +796,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>74428200</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="D3" s="4" t="b">
         <v>0</v>
       </c>
@@ -802,11 +808,9 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>74379752</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="D4" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>34</v>
@@ -1398,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7C5659-2810-411C-A2A6-224E30472B0B}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,9 +1415,11 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1426,8 +1432,12 @@
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1440,8 +1450,14 @@
       <c r="E2" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1452,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1463,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1474,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1485,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1496,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1508,6 +1524,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Config.xlsx
+++ b/data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\__bite_dev\PROJGosZakupAutomation\GosZakupAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0F8722-DFF7-4C5B-90BE-11D9C4C8523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECCBF8C-7B62-468E-B9CC-A7C1B039EA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CF29381C-BBBC-4892-948C-B1A8516F6FD0}"/>
   </bookViews>
@@ -248,6 +248,7 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,7 +258,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -613,7 +613,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526E5CA6-4BE2-43FF-9BEF-688DAF5A8913}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,18 +775,20 @@
       <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>73291113</v>
+      </c>
       <c r="D2" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>35</v>
@@ -796,9 +798,11 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>73291125</v>
+      </c>
       <c r="D3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>33</v>
@@ -1432,10 +1436,10 @@
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="7"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -1453,7 +1457,7 @@
       <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>37</v>
       </c>
     </row>
